--- a/text/画面定義書_M0003購入依頼詳細画面.xlsx
+++ b/text/画面定義書_M0003購入依頼詳細画面.xlsx
@@ -1,10 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28324"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A95B139-5983-4179-A4CA-C1A9DC185B9C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="画面定義" sheetId="1" r:id="rId1"/>
@@ -753,8 +754,8 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="11">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="11" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -840,7 +841,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -862,6 +863,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FF0070C0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -893,7 +900,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
@@ -919,7 +926,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -932,9 +939,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="top"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="一般" xfId="0" builtinId="0"/>
+    <cellStyle name="標準" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleMedium9"/>
@@ -966,7 +976,13 @@
     </xdr:to>
     <xdr:pic>
       <xdr:nvPicPr>
-        <xdr:cNvPr id="4" name="Picture 3"/>
+        <xdr:cNvPr id="4" name="Picture 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000004000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvPicPr>
           <a:picLocks noChangeAspect="1"/>
         </xdr:cNvPicPr>
@@ -1004,7 +1020,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="5" name="Rectangle 4"/>
+        <xdr:cNvPr id="5" name="Rectangle 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000005000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1064,7 +1086,13 @@
     </xdr:to>
     <xdr:sp macro="" textlink="">
       <xdr:nvSpPr>
-        <xdr:cNvPr id="7" name="Rectangle 6"/>
+        <xdr:cNvPr id="7" name="Rectangle 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{00000000-0008-0000-0000-000007000000}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
         <xdr:cNvSpPr/>
       </xdr:nvSpPr>
       <xdr:spPr>
@@ -1113,9 +1141,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office 佈景主題">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Office">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -1153,9 +1181,9 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Office">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
-        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1190,7 +1218,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
@@ -1225,7 +1253,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Office">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -1398,55 +1426,55 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A14" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25"/>
+    <sheetView topLeftCell="A40" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="F58" sqref="B58:F58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="24.875" customWidth="1"/>
-    <col min="3" max="3" width="15.875" customWidth="1"/>
-    <col min="4" max="4" width="37.125" customWidth="1"/>
-    <col min="5" max="5" width="44.125" customWidth="1"/>
+    <col min="2" max="2" width="24.88671875" customWidth="1"/>
+    <col min="3" max="3" width="15.88671875" customWidth="1"/>
+    <col min="4" max="4" width="37.109375" customWidth="1"/>
+    <col min="5" max="5" width="44.109375" customWidth="1"/>
     <col min="6" max="6" width="33" customWidth="1"/>
-    <col min="7" max="7" width="50.5" customWidth="1"/>
+    <col min="7" max="7" width="50.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2"/>
       <c r="F1" s="12"/>
     </row>
-    <row r="3" spans="1:6">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="B3" s="3"/>
     </row>
-    <row r="15" spans="1:6">
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F15" s="11"/>
     </row>
-    <row r="16" spans="1:6">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
       <c r="F16" s="13"/>
     </row>
-    <row r="17" spans="6:7">
+    <row r="17" spans="6:7" x14ac:dyDescent="0.2">
       <c r="F17" s="13"/>
     </row>
-    <row r="18" spans="6:7" ht="27">
+    <row r="18" spans="6:7" ht="26.4" x14ac:dyDescent="0.2">
       <c r="F18" s="16"/>
       <c r="G18" s="16" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="50" spans="1:7">
+    <row r="50" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
         <v>16</v>
       </c>
       <c r="B50" s="2"/>
     </row>
-    <row r="52" spans="1:7">
+    <row r="52" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>80</v>
       </c>
@@ -1455,13 +1483,13 @@
         <v>69</v>
       </c>
     </row>
-    <row r="54" spans="1:7">
+    <row r="54" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A54" s="2" t="s">
         <v>5</v>
       </c>
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="1:7">
+    <row r="55" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A55" s="5" t="s">
         <v>2</v>
       </c>
@@ -1484,7 +1512,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="56" spans="1:7" s="6" customFormat="1" ht="40.5">
+    <row r="56" spans="1:7" s="6" customFormat="1" ht="39.6" x14ac:dyDescent="0.2">
       <c r="A56" s="7">
         <v>1</v>
       </c>
@@ -1507,7 +1535,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="57" spans="1:7" s="6" customFormat="1">
+    <row r="57" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="7">
         <v>2</v>
       </c>
@@ -1528,8 +1556,8 @@
       </c>
       <c r="G57" s="8"/>
     </row>
-    <row r="58" spans="1:7" s="6" customFormat="1">
-      <c r="A58" s="7">
+    <row r="58" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="22">
         <v>3</v>
       </c>
       <c r="B58" s="7" t="s">
@@ -1549,8 +1577,8 @@
       </c>
       <c r="G58" s="7"/>
     </row>
-    <row r="59" spans="1:7" s="6" customFormat="1">
-      <c r="A59" s="7">
+    <row r="59" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="22">
         <v>4</v>
       </c>
       <c r="B59" s="7" t="s">
@@ -1570,8 +1598,8 @@
       </c>
       <c r="G59" s="7"/>
     </row>
-    <row r="60" spans="1:7" s="6" customFormat="1">
-      <c r="A60" s="7">
+    <row r="60" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="22">
         <v>5</v>
       </c>
       <c r="B60" s="7" t="s">
@@ -1591,7 +1619,7 @@
       </c>
       <c r="G60" s="7"/>
     </row>
-    <row r="61" spans="1:7" s="6" customFormat="1">
+    <row r="61" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A61" s="7">
         <v>6</v>
       </c>
@@ -1612,7 +1640,7 @@
       </c>
       <c r="G61" s="7"/>
     </row>
-    <row r="62" spans="1:7" s="6" customFormat="1">
+    <row r="62" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A62" s="7">
         <v>7</v>
       </c>
@@ -1633,7 +1661,7 @@
       </c>
       <c r="G62" s="7"/>
     </row>
-    <row r="63" spans="1:7" s="6" customFormat="1">
+    <row r="63" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A63" s="7">
         <v>8</v>
       </c>
@@ -1654,7 +1682,7 @@
       </c>
       <c r="G63" s="7"/>
     </row>
-    <row r="64" spans="1:7" s="6" customFormat="1">
+    <row r="64" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A64" s="7">
         <v>9</v>
       </c>
@@ -1675,8 +1703,8 @@
       </c>
       <c r="G64" s="7"/>
     </row>
-    <row r="65" spans="1:7" s="6" customFormat="1">
-      <c r="A65" s="7">
+    <row r="65" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="22">
         <v>10</v>
       </c>
       <c r="B65" s="7" t="s">
@@ -1696,7 +1724,7 @@
       </c>
       <c r="G65" s="7"/>
     </row>
-    <row r="66" spans="1:7" s="6" customFormat="1">
+    <row r="66" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A66" s="7">
         <v>11</v>
       </c>
@@ -1717,7 +1745,7 @@
       </c>
       <c r="G66" s="7"/>
     </row>
-    <row r="67" spans="1:7" s="6" customFormat="1">
+    <row r="67" spans="1:7" s="6" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="7">
         <v>12</v>
       </c>
@@ -1740,41 +1768,41 @@
         <v>36</v>
       </c>
     </row>
-    <row r="68" spans="1:7">
+    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A68" s="9"/>
     </row>
-    <row r="69" spans="1:7">
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B69" s="17" t="s">
         <v>73</v>
       </c>
     </row>
-    <row r="70" spans="1:7">
+    <row r="70" spans="1:7" x14ac:dyDescent="0.2">
       <c r="B70" s="17" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="74" spans="1:7" s="14" customFormat="1">
+    <row r="74" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A74" s="14" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="75" spans="1:7" s="14" customFormat="1">
+    <row r="75" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A75" s="14" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="76" spans="1:7" s="14" customFormat="1">
+    <row r="76" spans="1:7" s="14" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B76" s="14" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="77" spans="1:7" s="15" customFormat="1"/>
-    <row r="78" spans="1:7" s="15" customFormat="1">
+    <row r="77" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
+    <row r="78" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2">
       <c r="B78" s="15" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="79" spans="1:7" s="15" customFormat="1"/>
+    <row r="79" spans="1:7" s="15" customFormat="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <phoneticPr fontId="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -1784,26 +1812,26 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="2" max="2" width="20.75" customWidth="1"/>
-    <col min="3" max="3" width="14.875" customWidth="1"/>
+    <col min="2" max="2" width="20.77734375" customWidth="1"/>
+    <col min="3" max="3" width="14.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="B1" s="2"/>
     </row>
-    <row r="3" spans="1:3">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>2</v>
       </c>
@@ -1814,7 +1842,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>1</v>
       </c>
@@ -1825,7 +1853,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="5" spans="1:3">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>2</v>
       </c>
@@ -1836,7 +1864,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="6" spans="1:3">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>3</v>
       </c>
@@ -1847,7 +1875,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>4</v>
       </c>
@@ -1866,25 +1894,25 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="B1:L21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="B6" sqref="B6:L21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
@@ -1901,7 +1929,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +1946,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -1933,7 +1961,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>78</v>
       </c>
@@ -1948,7 +1976,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -1961,7 +1989,7 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -1974,7 +2002,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -1987,7 +2015,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -2000,7 +2028,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2013,7 +2041,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2026,7 +2054,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2039,7 +2067,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2052,7 +2080,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2065,7 +2093,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -2078,7 +2106,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2091,7 +2119,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2104,7 +2132,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2117,7 +2145,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2130,7 +2158,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2156,25 +2184,25 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="B1:L24"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="B6" sqref="B6:L24"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="8.875" customWidth="1"/>
+    <col min="3" max="3" width="8.88671875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12">
+    <row r="1" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B1" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C1" s="4"/>
     </row>
-    <row r="3" spans="2:12">
+    <row r="3" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B3" s="10" t="s">
         <v>14</v>
       </c>
@@ -2191,7 +2219,7 @@
       <c r="K3" s="19"/>
       <c r="L3" s="19"/>
     </row>
-    <row r="4" spans="2:12">
+    <row r="4" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B4" s="10" t="s">
         <v>15</v>
       </c>
@@ -2208,7 +2236,7 @@
       <c r="K4" s="19"/>
       <c r="L4" s="19"/>
     </row>
-    <row r="5" spans="2:12">
+    <row r="5" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B5" s="19" t="s">
         <v>13</v>
       </c>
@@ -2223,7 +2251,7 @@
       <c r="K5" s="19"/>
       <c r="L5" s="19"/>
     </row>
-    <row r="6" spans="2:12">
+    <row r="6" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B6" s="20" t="s">
         <v>79</v>
       </c>
@@ -2238,7 +2266,7 @@
       <c r="K6" s="21"/>
       <c r="L6" s="21"/>
     </row>
-    <row r="7" spans="2:12">
+    <row r="7" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B7" s="21"/>
       <c r="C7" s="21"/>
       <c r="D7" s="21"/>
@@ -2251,7 +2279,7 @@
       <c r="K7" s="21"/>
       <c r="L7" s="21"/>
     </row>
-    <row r="8" spans="2:12">
+    <row r="8" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B8" s="21"/>
       <c r="C8" s="21"/>
       <c r="D8" s="21"/>
@@ -2264,7 +2292,7 @@
       <c r="K8" s="21"/>
       <c r="L8" s="21"/>
     </row>
-    <row r="9" spans="2:12">
+    <row r="9" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B9" s="21"/>
       <c r="C9" s="21"/>
       <c r="D9" s="21"/>
@@ -2277,7 +2305,7 @@
       <c r="K9" s="21"/>
       <c r="L9" s="21"/>
     </row>
-    <row r="10" spans="2:12">
+    <row r="10" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B10" s="21"/>
       <c r="C10" s="21"/>
       <c r="D10" s="21"/>
@@ -2290,7 +2318,7 @@
       <c r="K10" s="21"/>
       <c r="L10" s="21"/>
     </row>
-    <row r="11" spans="2:12">
+    <row r="11" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B11" s="21"/>
       <c r="C11" s="21"/>
       <c r="D11" s="21"/>
@@ -2303,7 +2331,7 @@
       <c r="K11" s="21"/>
       <c r="L11" s="21"/>
     </row>
-    <row r="12" spans="2:12">
+    <row r="12" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B12" s="21"/>
       <c r="C12" s="21"/>
       <c r="D12" s="21"/>
@@ -2316,7 +2344,7 @@
       <c r="K12" s="21"/>
       <c r="L12" s="21"/>
     </row>
-    <row r="13" spans="2:12">
+    <row r="13" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B13" s="21"/>
       <c r="C13" s="21"/>
       <c r="D13" s="21"/>
@@ -2329,7 +2357,7 @@
       <c r="K13" s="21"/>
       <c r="L13" s="21"/>
     </row>
-    <row r="14" spans="2:12">
+    <row r="14" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B14" s="21"/>
       <c r="C14" s="21"/>
       <c r="D14" s="21"/>
@@ -2342,7 +2370,7 @@
       <c r="K14" s="21"/>
       <c r="L14" s="21"/>
     </row>
-    <row r="15" spans="2:12">
+    <row r="15" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B15" s="21"/>
       <c r="C15" s="21"/>
       <c r="D15" s="21"/>
@@ -2355,7 +2383,7 @@
       <c r="K15" s="21"/>
       <c r="L15" s="21"/>
     </row>
-    <row r="16" spans="2:12">
+    <row r="16" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B16" s="21"/>
       <c r="C16" s="21"/>
       <c r="D16" s="21"/>
@@ -2368,7 +2396,7 @@
       <c r="K16" s="21"/>
       <c r="L16" s="21"/>
     </row>
-    <row r="17" spans="2:12">
+    <row r="17" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B17" s="21"/>
       <c r="C17" s="21"/>
       <c r="D17" s="21"/>
@@ -2381,7 +2409,7 @@
       <c r="K17" s="21"/>
       <c r="L17" s="21"/>
     </row>
-    <row r="18" spans="2:12">
+    <row r="18" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B18" s="21"/>
       <c r="C18" s="21"/>
       <c r="D18" s="21"/>
@@ -2394,7 +2422,7 @@
       <c r="K18" s="21"/>
       <c r="L18" s="21"/>
     </row>
-    <row r="19" spans="2:12">
+    <row r="19" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B19" s="21"/>
       <c r="C19" s="21"/>
       <c r="D19" s="21"/>
@@ -2407,7 +2435,7 @@
       <c r="K19" s="21"/>
       <c r="L19" s="21"/>
     </row>
-    <row r="20" spans="2:12">
+    <row r="20" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B20" s="21"/>
       <c r="C20" s="21"/>
       <c r="D20" s="21"/>
@@ -2420,7 +2448,7 @@
       <c r="K20" s="21"/>
       <c r="L20" s="21"/>
     </row>
-    <row r="21" spans="2:12">
+    <row r="21" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B21" s="21"/>
       <c r="C21" s="21"/>
       <c r="D21" s="21"/>
@@ -2433,7 +2461,7 @@
       <c r="K21" s="21"/>
       <c r="L21" s="21"/>
     </row>
-    <row r="22" spans="2:12">
+    <row r="22" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B22" s="21"/>
       <c r="C22" s="21"/>
       <c r="D22" s="21"/>
@@ -2446,7 +2474,7 @@
       <c r="K22" s="21"/>
       <c r="L22" s="21"/>
     </row>
-    <row r="23" spans="2:12">
+    <row r="23" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B23" s="21"/>
       <c r="C23" s="21"/>
       <c r="D23" s="21"/>
@@ -2459,7 +2487,7 @@
       <c r="K23" s="21"/>
       <c r="L23" s="21"/>
     </row>
-    <row r="24" spans="2:12">
+    <row r="24" spans="2:12" x14ac:dyDescent="0.2">
       <c r="B24" s="21"/>
       <c r="C24" s="21"/>
       <c r="D24" s="21"/>
